--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt1</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H2">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>0.305723565056</v>
+        <v>1.205247352961333</v>
       </c>
       <c r="R2">
-        <v>2.751512085504</v>
+        <v>10.847226176652</v>
       </c>
       <c r="S2">
-        <v>0.1528215756229904</v>
+        <v>0.08876465481726208</v>
       </c>
       <c r="T2">
-        <v>0.1528215756229904</v>
+        <v>0.08876465481726208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H3">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>0.8047994650453334</v>
+        <v>3.237058493913667</v>
       </c>
       <c r="R3">
-        <v>7.243195185408</v>
+        <v>29.133526445223</v>
       </c>
       <c r="S3">
-        <v>0.4022938901888023</v>
+        <v>0.2384044894432149</v>
       </c>
       <c r="T3">
-        <v>0.4022938901888023</v>
+        <v>0.2384044894432149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H4">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>0.3522506080426666</v>
+        <v>1.747827647277667</v>
       </c>
       <c r="R4">
-        <v>3.170255472384</v>
+        <v>15.730448825499</v>
       </c>
       <c r="S4">
-        <v>0.1760789781624335</v>
+        <v>0.1287248774365462</v>
       </c>
       <c r="T4">
-        <v>0.1760789781624335</v>
+        <v>0.1287248774365462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H5">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>0.1608082189653333</v>
+        <v>0.7161856653753332</v>
       </c>
       <c r="R5">
-        <v>1.447273970688</v>
+        <v>6.445670988378</v>
       </c>
       <c r="S5">
-        <v>0.08038296096314212</v>
+        <v>0.05274599709006964</v>
       </c>
       <c r="T5">
-        <v>0.08038296096314212</v>
+        <v>0.05274599709006964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,666 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
+        <v>0.09370099999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.281103</v>
+      </c>
+      <c r="I6">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="J6">
+        <v>0.6634967391997054</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N6">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P6">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q6">
+        <v>2.102646067286666</v>
+      </c>
+      <c r="R6">
+        <v>18.92381460558</v>
+      </c>
+      <c r="S6">
+        <v>0.1548567204126126</v>
+      </c>
+      <c r="T6">
+        <v>0.1548567204126126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
         <v>0.023296</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.06988800000000001</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>16.18064633333333</v>
-      </c>
-      <c r="N6">
-        <v>48.541939</v>
-      </c>
-      <c r="O6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="P6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="Q6">
-        <v>0.3769443369813333</v>
-      </c>
-      <c r="R6">
-        <v>3.392499032832</v>
-      </c>
-      <c r="S6">
-        <v>0.1884225950626316</v>
-      </c>
-      <c r="T6">
-        <v>0.1884225950626316</v>
+      <c r="I7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.86269466666666</v>
+      </c>
+      <c r="N7">
+        <v>38.58808399999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="P7">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="Q7">
+        <v>0.2996493349546666</v>
+      </c>
+      <c r="R7">
+        <v>2.696844014592</v>
+      </c>
+      <c r="S7">
+        <v>0.02206872283778121</v>
+      </c>
+      <c r="T7">
+        <v>0.02206872283778121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.023296</v>
+      </c>
+      <c r="H8">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J8">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N8">
+        <v>103.640041</v>
+      </c>
+      <c r="O8">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="P8">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="Q8">
+        <v>0.8047994650453334</v>
+      </c>
+      <c r="R8">
+        <v>7.243195185408</v>
+      </c>
+      <c r="S8">
+        <v>0.05927227015793999</v>
+      </c>
+      <c r="T8">
+        <v>0.05927227015793998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.023296</v>
+      </c>
+      <c r="H9">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J9">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.65324433333334</v>
+      </c>
+      <c r="N9">
+        <v>55.95973300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="P9">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="Q9">
+        <v>0.4345459799893334</v>
+      </c>
+      <c r="R9">
+        <v>3.910913819904001</v>
+      </c>
+      <c r="S9">
+        <v>0.03200365785596505</v>
+      </c>
+      <c r="T9">
+        <v>0.03200365785596505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.023296</v>
+      </c>
+      <c r="H10">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J10">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.643308666666666</v>
+      </c>
+      <c r="N10">
+        <v>22.929926</v>
+      </c>
+      <c r="O10">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="P10">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="Q10">
+        <v>0.1780585186986667</v>
+      </c>
+      <c r="R10">
+        <v>1.602526668288</v>
+      </c>
+      <c r="S10">
+        <v>0.01311374209677872</v>
+      </c>
+      <c r="T10">
+        <v>0.01311374209677871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.023296</v>
+      </c>
+      <c r="H11">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J11">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N11">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P11">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q11">
+        <v>0.5227611528533334</v>
+      </c>
+      <c r="R11">
+        <v>4.70485037568</v>
+      </c>
+      <c r="S11">
+        <v>0.03850057265912021</v>
+      </c>
+      <c r="T11">
+        <v>0.03850057265912021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.024226</v>
+      </c>
+      <c r="H12">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J12">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.86269466666666</v>
+      </c>
+      <c r="N12">
+        <v>38.58808399999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="P12">
+        <v>0.1337831063410017</v>
+      </c>
+      <c r="Q12">
+        <v>0.3116116409946666</v>
+      </c>
+      <c r="R12">
+        <v>2.804504768952</v>
+      </c>
+      <c r="S12">
+        <v>0.02294972868595843</v>
+      </c>
+      <c r="T12">
+        <v>0.02294972868595843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.024226</v>
+      </c>
+      <c r="H13">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J13">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.54668033333333</v>
+      </c>
+      <c r="N13">
+        <v>103.640041</v>
+      </c>
+      <c r="O13">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="P13">
+        <v>0.3593152390330854</v>
+      </c>
+      <c r="Q13">
+        <v>0.8369278777553334</v>
+      </c>
+      <c r="R13">
+        <v>7.532350899798001</v>
+      </c>
+      <c r="S13">
+        <v>0.06163847943193055</v>
+      </c>
+      <c r="T13">
+        <v>0.06163847943193055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.024226</v>
+      </c>
+      <c r="H14">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J14">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.65324433333334</v>
+      </c>
+      <c r="N14">
+        <v>55.95973300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="P14">
+        <v>0.1940098117012772</v>
+      </c>
+      <c r="Q14">
+        <v>0.4518934972193334</v>
+      </c>
+      <c r="R14">
+        <v>4.067041474974001</v>
+      </c>
+      <c r="S14">
+        <v>0.03328127640876586</v>
+      </c>
+      <c r="T14">
+        <v>0.03328127640876586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.024226</v>
+      </c>
+      <c r="H15">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J15">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.643308666666666</v>
+      </c>
+      <c r="N15">
+        <v>22.929926</v>
+      </c>
+      <c r="O15">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="P15">
+        <v>0.07949699519803316</v>
+      </c>
+      <c r="Q15">
+        <v>0.1851667957586667</v>
+      </c>
+      <c r="R15">
+        <v>1.666501161828</v>
+      </c>
+      <c r="S15">
+        <v>0.0136372560111848</v>
+      </c>
+      <c r="T15">
+        <v>0.0136372560111848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.024226</v>
+      </c>
+      <c r="H16">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J16">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>22.43995333333334</v>
+      </c>
+      <c r="N16">
+        <v>67.31986000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="P16">
+        <v>0.2333948477266026</v>
+      </c>
+      <c r="Q16">
+        <v>0.5436303094533333</v>
+      </c>
+      <c r="R16">
+        <v>4.892672785080001</v>
+      </c>
+      <c r="S16">
+        <v>0.04003755465486978</v>
+      </c>
+      <c r="T16">
+        <v>0.04003755465486978</v>
       </c>
     </row>
   </sheetData>
